--- a/2LabsToGo-Eco-Hardware/Material-Lists/Prusa-basket.xlsx
+++ b/2LabsToGo-Eco-Hardware/Material-Lists/Prusa-basket.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Coworkers\Cande\Paper_OCLab4\BOM-list\Baskets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wschwack\GitHub\2LabsToGo-Eco\2LabsToGo-Eco-Hardware\Material-Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Stepper motor Z-axis Right (MK3/S/+, MK2.5/S, MK2/S)</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Part description</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -400,22 +403,25 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -426,7 +432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -441,7 +447,7 @@
         <v>32.68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -456,7 +462,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -471,7 +477,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -486,7 +492,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -501,7 +507,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -516,7 +522,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
@@ -525,7 +531,7 @@
         <v>53.019999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
@@ -536,5 +542,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>